--- a/PILOTTO-Loris-nonlinear-extension.xlsx
+++ b/PILOTTO-Loris-nonlinear-extension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loris\Google Drive\EPFL\QSMT\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95703FD-252F-4003-AF89-86B30FEA1ABC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACB9CF-DE31-410B-8D8D-5EB21B8E1404}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Feuil1!$G$6:$I$10</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.000000001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
@@ -39,7 +39,7 @@
     <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Feuil1!$M$3</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
@@ -59,7 +59,7 @@
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">Feuil1!$B$16:$B$18</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Ordered raw material weight [kg]</t>
   </si>
@@ -293,6 +293,16 @@
     <t>Fraction of used volume for each box
 (need to be greater than 2 from the 
 constraint)</t>
+  </si>
+  <si>
+    <t>PS: GRG nonlinear model is 
+sensitive to the initialization since 
+convergence to a global minimum
+is not guaranteed. Also, changing
+ some options in the excel solver window usually helps to find an optimal solution:
+1) allow automatic scaling
+2) increase constraint precision
+3) increase GRG nonlinear convergence</t>
   </si>
 </sst>
 </file>
@@ -366,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -377,6 +387,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -661,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -943,7 +956,7 @@
         <v>2475</v>
       </c>
       <c r="N16">
-        <f>A2*M16/SUM(M16:M18)</f>
+        <f>A2*M16/M5</f>
         <v>4925.6756756756758</v>
       </c>
     </row>
@@ -965,7 +978,7 @@
         <v>3300</v>
       </c>
       <c r="N17">
-        <f>A2*M17/SUM(M16:M18)</f>
+        <f>A2*M17/M5</f>
         <v>6567.5675675675675</v>
       </c>
     </row>
@@ -987,11 +1000,14 @@
         <v>4400</v>
       </c>
       <c r="N18">
-        <f>A2*M18/SUM(M16:M18)</f>
+        <f>A2*M18/M5</f>
         <v>8756.7567567567567</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="L20" s="7" t="s">
         <v>33</v>
       </c>

--- a/PILOTTO-Loris-nonlinear-extension.xlsx
+++ b/PILOTTO-Loris-nonlinear-extension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loris\Google Drive\EPFL\QSMT\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACB9CF-DE31-410B-8D8D-5EB21B8E1404}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF31327-5ADA-45A2-BF11-CC078FDE8CB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,11 +290,6 @@
     <t>Total number of boxes</t>
   </si>
   <si>
-    <t>Fraction of used volume for each box
-(need to be greater than 2 from the 
-constraint)</t>
-  </si>
-  <si>
     <t>PS: GRG nonlinear model is 
 sensitive to the initialization since 
 convergence to a global minimum
@@ -303,6 +298,9 @@
 1) allow automatic scaling
 2) increase constraint precision
 3) increase GRG nonlinear convergence</t>
+  </si>
+  <si>
+    <t>Fraction of used volume for each box</t>
   </si>
 </sst>
 </file>
@@ -674,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1006,10 +1004,10 @@
     </row>
     <row r="20" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M20">
         <f>M1/SUMPRODUCT(B6:B10,J6:J10)</f>

--- a/PILOTTO-Loris-nonlinear-extension.xlsx
+++ b/PILOTTO-Loris-nonlinear-extension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loris\Google Drive\EPFL\QSMT\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF31327-5ADA-45A2-BF11-CC078FDE8CB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90D2C3F-F13A-4B96-BE40-83B908E42C7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PILOTTO-Loris-nonlinear-extension.xlsx
+++ b/PILOTTO-Loris-nonlinear-extension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loris\Google Drive\EPFL\QSMT\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90D2C3F-F13A-4B96-BE40-83B908E42C7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BAF141-6490-43AA-A24F-F21B51205872}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,7 +290,29 @@
     <t>Total number of boxes</t>
   </si>
   <si>
-    <t>PS: GRG nonlinear model is 
+    <t>Fraction of used volume for each box</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: GRG nonlinear model is 
 sensitive to the initialization since 
 convergence to a global minimum
 is not guaranteed. Also, changing
@@ -298,16 +320,14 @@
 1) allow automatic scaling
 2) increase constraint precision
 3) increase GRG nonlinear convergence</t>
-  </si>
-  <si>
-    <t>Fraction of used volume for each box</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +337,14 @@
     </font>
     <font>
       <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -672,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1004,10 +1032,10 @@
     </row>
     <row r="20" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M20">
         <f>M1/SUMPRODUCT(B6:B10,J6:J10)</f>
